--- a/test_case/unit-test-case_v2.xlsx
+++ b/test_case/unit-test-case_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-unit-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A4451A4-D0AB-4EFD-8BAC-6518DA7B8127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF822AB1-47F9-4DC8-AB4C-A5CB1CBC7FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" firstSheet="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧画面" sheetId="9" r:id="rId1"/>
@@ -1182,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4A1231-2B5D-4A6B-A443-53E1D4266F52}">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/test_case/unit-test-case_v2.xlsx
+++ b/test_case/unit-test-case_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-unit-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF822AB1-47F9-4DC8-AB4C-A5CB1CBC7FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13A0CDF1-6D34-4CC9-9E84-F2D75D3817BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="186">
   <si>
     <t>テストID</t>
   </si>
@@ -91,6 +91,9 @@
     <t>左から「ID」「名前(姓)」「名前(名)」「カナ(姓)」「カナ(名)」「メールアドレス」「性別」「アカウント権限」「削除フラグ」「登録日時」「更新日時」「操作」の順で並んでいる</t>
   </si>
   <si>
+    <t>OK</t>
+  </si>
+  <si>
     <t>河本</t>
   </si>
   <si>
@@ -146,9 +149,6 @@
   </si>
   <si>
     <t>1.【前に戻る】ボタンへカーソルを合わせる</t>
-  </si>
-  <si>
-    <t>OK</t>
   </si>
   <si>
     <t>1.【前に戻る】ボタンにカーソルを合わせ、左クリックを押し続ける
@@ -1182,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4A1231-2B5D-4A6B-A443-53E1D4266F52}">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1272,12 +1272,20 @@
       <c r="E5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="8">
+        <v>45058</v>
+      </c>
       <c r="J5" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="20"/>
@@ -1288,22 +1296,32 @@
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="8">
+        <v>45058</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="5"/>
       <c r="K6" s="7"/>
       <c r="L6" s="20"/>
     </row>
@@ -1314,19 +1332,29 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="8">
+        <v>45058</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K7" s="7"/>
       <c r="L7" s="20"/>
     </row>
@@ -1337,19 +1365,29 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="8">
+        <v>45058</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="20"/>
     </row>
@@ -1359,22 +1397,32 @@
         <v>5</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="8">
+        <v>45058</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="L9" s="20"/>
     </row>
@@ -1385,19 +1433,29 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="8">
+        <v>45058</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="20"/>
     </row>
@@ -1408,19 +1466,29 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="8">
+        <v>45058</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K11" s="7"/>
       <c r="L11" s="20"/>
     </row>
@@ -3095,31 +3163,31 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I5" s="8">
         <v>45028</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="20"/>
@@ -3131,28 +3199,28 @@
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I6" s="8">
         <v>45028</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="20"/>
@@ -3164,7 +3232,7 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>36</v>
@@ -3173,19 +3241,19 @@
         <v>37</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I7" s="8">
         <v>45028</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>38</v>
@@ -3201,7 +3269,7 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>36</v>
@@ -3210,19 +3278,19 @@
         <v>40</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I8" s="8">
         <v>45037</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="20"/>
@@ -3245,19 +3313,19 @@
         <v>44</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I9" s="8">
         <v>45028</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="20"/>
@@ -5008,7 +5076,7 @@
         <v>45028</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>50</v>
@@ -5026,7 +5094,7 @@
         <v>52</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>53</v>
@@ -5035,19 +5103,19 @@
         <v>54</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I6" s="8">
         <v>45028</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="20"/>
@@ -5059,7 +5127,7 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>55</v>
@@ -5068,19 +5136,19 @@
         <v>56</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I7" s="8">
         <v>45028</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="20"/>
@@ -5092,7 +5160,7 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>57</v>
@@ -5101,19 +5169,19 @@
         <v>58</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I8" s="8">
         <v>45028</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="20"/>
@@ -6761,7 +6829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0251EFA2-F071-424F-9191-E7B3DB25F7DC}">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B10" sqref="B5:E10"/>
     </sheetView>
   </sheetViews>
@@ -6840,31 +6908,31 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I5" s="8">
         <v>45028</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="20"/>
@@ -6876,28 +6944,28 @@
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I6" s="8">
         <v>45028</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="20"/>
@@ -6909,7 +6977,7 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>61</v>
@@ -6918,19 +6986,19 @@
         <v>62</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I7" s="8">
         <v>45028</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="20"/>
@@ -6944,28 +7012,28 @@
         <v>63</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I8" s="8">
         <v>45028</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="20"/>
@@ -6977,28 +7045,28 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I9" s="8">
         <v>45028</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="20"/>
@@ -7010,7 +7078,7 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>66</v>
@@ -7019,19 +7087,19 @@
         <v>67</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I10" s="8">
         <v>45028</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="20"/>
@@ -8736,19 +8804,19 @@
         <v>71</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I5" s="8">
         <v>45028</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="20"/>
@@ -8769,19 +8837,19 @@
         <v>74</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I6" s="8">
         <v>45028</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="20"/>
@@ -8814,7 +8882,7 @@
         <v>45037</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>77</v>
@@ -8823,7 +8891,7 @@
         <v>78</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -8842,19 +8910,19 @@
         <v>81</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I8" s="8">
         <v>45028</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="20"/>
@@ -8875,19 +8943,19 @@
         <v>84</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I9" s="8">
         <v>45028</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="20"/>
@@ -8910,19 +8978,19 @@
         <v>87</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I10" s="8">
         <v>45028</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="20"/>
@@ -8943,19 +9011,19 @@
         <v>74</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I11" s="8">
         <v>45028</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="20"/>
@@ -8988,7 +9056,7 @@
         <v>45037</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>77</v>
@@ -8997,7 +9065,7 @@
         <v>78</v>
       </c>
       <c r="M12" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -9016,19 +9084,19 @@
         <v>81</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I13" s="8">
         <v>45028</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="20"/>
@@ -9049,19 +9117,19 @@
         <v>84</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I14" s="8">
         <v>45028</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="20"/>
@@ -9083,19 +9151,19 @@
         <v>94</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I15" s="8">
         <v>45028</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="20"/>
@@ -9116,19 +9184,19 @@
         <v>96</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I16" s="8">
         <v>45028</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="20"/>
@@ -9161,7 +9229,7 @@
         <v>45037</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>77</v>
@@ -9170,7 +9238,7 @@
         <v>78</v>
       </c>
       <c r="M17" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -9189,19 +9257,19 @@
         <v>81</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I18" s="8">
         <v>45028</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="20"/>
@@ -9234,7 +9302,7 @@
         <v>45028</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>100</v>
@@ -9243,7 +9311,7 @@
         <v>101</v>
       </c>
       <c r="M19" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="36.75">
@@ -9264,19 +9332,19 @@
         <v>104</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I20" s="8">
         <v>45028</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="20"/>
@@ -9297,19 +9365,19 @@
         <v>96</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I21" s="8">
         <v>45028</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="20"/>
@@ -9342,7 +9410,7 @@
         <v>45037</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>77</v>
@@ -9351,7 +9419,7 @@
         <v>78</v>
       </c>
       <c r="M22" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -9370,19 +9438,19 @@
         <v>81</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I23" s="8">
         <v>45028</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="20"/>
@@ -9415,7 +9483,7 @@
         <v>45028</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>100</v>
@@ -9424,7 +9492,7 @@
         <v>101</v>
       </c>
       <c r="M24" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="36.75">
@@ -9445,19 +9513,19 @@
         <v>111</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I25" s="8">
         <v>45028</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="20"/>
@@ -9490,7 +9558,7 @@
         <v>45028</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K26" s="19" t="s">
         <v>114</v>
@@ -9499,7 +9567,7 @@
         <v>115</v>
       </c>
       <c r="M26" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -9518,19 +9586,19 @@
         <v>117</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I27" s="8">
         <v>45028</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="20"/>
@@ -9563,7 +9631,7 @@
         <v>45028</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K28" s="19" t="s">
         <v>114</v>
@@ -9572,7 +9640,7 @@
         <v>115</v>
       </c>
       <c r="M28" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="36.75">
@@ -9593,19 +9661,19 @@
         <v>121</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I29" s="8">
         <v>45028</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="20"/>
@@ -9626,19 +9694,19 @@
         <v>123</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I30" s="8">
         <v>45028</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="20"/>
@@ -9659,19 +9727,19 @@
         <v>81</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I31" s="8">
         <v>45028</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K31" s="7"/>
       <c r="L31" s="20"/>
@@ -9692,19 +9760,19 @@
         <v>127</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I32" s="8">
         <v>45028</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="20"/>
@@ -9725,19 +9793,19 @@
         <v>84</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I33" s="8">
         <v>45028</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="20"/>
@@ -9760,19 +9828,19 @@
         <v>132</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I34" s="8">
         <v>45028</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K34" s="7"/>
       <c r="L34" s="20"/>
@@ -9793,19 +9861,19 @@
         <v>84</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I35" s="8">
         <v>45028</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="20"/>
@@ -9828,19 +9896,19 @@
         <v>136</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I36" s="8">
         <v>45028</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K36" s="7"/>
       <c r="L36" s="20"/>
@@ -9861,19 +9929,19 @@
         <v>138</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I37" s="8">
         <v>45028</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="20"/>
@@ -9894,19 +9962,19 @@
         <v>140</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I38" s="8">
         <v>45028</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K38" s="7"/>
       <c r="L38" s="20"/>
@@ -9938,7 +10006,7 @@
         <v>45028</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K39" s="19" t="s">
         <v>142</v>
@@ -9947,7 +10015,7 @@
         <v>143</v>
       </c>
       <c r="M39" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="36.75">
@@ -9968,19 +10036,19 @@
         <v>146</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I40" s="8">
         <v>45028</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K40" s="7"/>
       <c r="L40" s="20"/>
@@ -10001,19 +10069,19 @@
         <v>149</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I41" s="8">
         <v>45028</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="20"/>
@@ -10046,7 +10114,7 @@
         <v>45037</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>77</v>
@@ -10055,7 +10123,7 @@
         <v>78</v>
       </c>
       <c r="M42" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="36.75">
@@ -10074,19 +10142,19 @@
         <v>84</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I43" s="8">
         <v>45028</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="20"/>
@@ -10109,19 +10177,19 @@
         <v>155</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I44" s="8">
         <v>45028</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K44" s="7"/>
       <c r="L44" s="20"/>
@@ -10154,7 +10222,7 @@
         <v>45028</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>158</v>
@@ -10163,7 +10231,7 @@
         <v>159</v>
       </c>
       <c r="M45" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -10182,19 +10250,19 @@
         <v>81</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I46" s="8">
         <v>45028</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K46" s="7"/>
       <c r="L46" s="20"/>
@@ -10215,19 +10283,19 @@
         <v>84</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I47" s="8">
         <v>45028</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K47" s="7"/>
       <c r="L47" s="20"/>
@@ -10250,19 +10318,19 @@
         <v>164</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I48" s="8">
         <v>45028</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K48" s="7"/>
       <c r="L48" s="20"/>
@@ -10295,7 +10363,7 @@
         <v>45028</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>158</v>
@@ -10304,7 +10372,7 @@
         <v>159</v>
       </c>
       <c r="M49" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -10323,19 +10391,19 @@
         <v>117</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I50" s="8">
         <v>45028</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K50" s="7"/>
       <c r="L50" s="20"/>
@@ -10356,19 +10424,19 @@
         <v>84</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I51" s="8">
         <v>45028</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K51" s="7"/>
       <c r="L51" s="20"/>
@@ -10391,19 +10459,19 @@
         <v>172</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I52" s="8">
         <v>45028</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K52" s="7"/>
       <c r="L52" s="20"/>
@@ -10424,19 +10492,19 @@
         <v>84</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I53" s="8">
         <v>45028</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K53" s="7"/>
       <c r="L53" s="20"/>
@@ -10459,19 +10527,19 @@
         <v>177</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I54" s="8">
         <v>45028</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K54" s="7"/>
       <c r="L54" s="20"/>
@@ -10492,19 +10560,19 @@
         <v>180</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I55" s="8">
         <v>45028</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K55" s="7"/>
       <c r="L55" s="20"/>
@@ -10516,7 +10584,7 @@
       </c>
       <c r="B56" s="16"/>
       <c r="C56" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>181</v>
@@ -10525,19 +10593,19 @@
         <v>182</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I56" s="8">
         <v>45028</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K56" s="7"/>
       <c r="L56" s="20"/>
@@ -10549,28 +10617,28 @@
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>183</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I57" s="8">
         <v>45028</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="20"/>
@@ -10582,28 +10650,28 @@
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>184</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I58" s="8">
         <v>45028</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K58" s="7"/>
       <c r="L58" s="20"/>
@@ -10615,7 +10683,7 @@
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>185</v>
@@ -10624,19 +10692,19 @@
         <v>62</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I59" s="8">
         <v>45028</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K59" s="7"/>
       <c r="L59" s="20"/>
